--- a/data/descriptive/unique_criminal_list.xlsx
+++ b/data/descriptive/unique_criminal_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="-20" windowWidth="12800" windowHeight="15460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="118">
   <si>
     <t>ASSAULT- SIMPLE NOT AGGRAVATED</t>
   </si>
@@ -352,6 +352,39 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>disorderly_conduct</t>
+  </si>
+  <si>
+    <t>resisting_arrest</t>
+  </si>
+  <si>
+    <t>missing_person</t>
+  </si>
+  <si>
+    <t>fake_id</t>
+  </si>
+  <si>
+    <t>suicide</t>
+  </si>
+  <si>
+    <t>non-criminal</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>accidental_death</t>
+  </si>
+  <si>
+    <t>robbery</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1316,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B23" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1642,7 +1675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1653,8 +1686,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:J2052"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1810"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1710,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30.75" hidden="1" customHeight="1">
+    <row r="5" spans="2:10" ht="14" hidden="1" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1761,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -1750,7 +1783,7 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -2461,7 +2494,7 @@
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>26</v>
@@ -2782,7 +2815,7 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>32</v>
@@ -2828,7 +2861,7 @@
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>33</v>
@@ -2854,7 +2887,7 @@
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>34</v>
@@ -4815,7 +4848,7 @@
     </row>
     <row r="569" spans="2:4">
       <c r="B569" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>50</v>
@@ -4861,7 +4894,7 @@
     </row>
     <row r="577" spans="2:4">
       <c r="B577" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C577" s="4" t="s">
         <v>51</v>
@@ -4983,7 +5016,7 @@
     </row>
     <row r="599" spans="2:4">
       <c r="B599" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C599" s="4" t="s">
         <v>53</v>
@@ -5820,7 +5853,7 @@
     </row>
     <row r="764" spans="2:4">
       <c r="B764" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C764" s="4" t="s">
         <v>55</v>
@@ -7666,7 +7699,7 @@
     </row>
     <row r="1126" spans="2:4">
       <c r="B1126" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C1126" s="4" t="s">
         <v>61</v>
@@ -8379,7 +8412,7 @@
     </row>
     <row r="1265" spans="2:4">
       <c r="B1265" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C1265" s="5" t="s">
         <v>64</v>
@@ -8698,7 +8731,7 @@
     </row>
     <row r="1324" spans="2:4">
       <c r="B1324" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C1324" s="5" t="s">
         <v>68</v>
@@ -9760,7 +9793,7 @@
     </row>
     <row r="1534" spans="2:4">
       <c r="B1534" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C1534" s="5" t="s">
         <v>70</v>
@@ -12436,7 +12469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -12626,7 +12659,7 @@
   <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A77"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
